--- a/lib/examples/TEST.xlsx
+++ b/lib/examples/TEST.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <x:si>
     <x:t>TITLE</x:t>
   </x:si>
@@ -92,6 +92,21 @@
   </x:si>
   <x:si>
     <x:t>DRAG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EXCEL_SAVE_TEST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sheet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TEST_XLSX_SAVE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2012</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -155,8 +170,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F8" totalsRowShown="0">
-  <x:autoFilter ref="A1:F8"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F10" totalsRowShown="0">
+  <x:autoFilter ref="A1:F10"/>
   <x:tableColumns count="6">
     <x:tableColumn id="1" name="TITLE"/>
     <x:tableColumn id="2" name="ARTIST"/>
@@ -457,7 +472,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F8"/>
+  <x:dimension ref="A1:F10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -615,6 +630,37 @@
       </x:c>
       <x:c r="F8" s="0" t="s">
         <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="A9" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>30</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
